--- a/eredmenyek/Önkormányzat VI. ker A, 083.xlsx
+++ b/eredmenyek/Önkormányzat VI. ker A, 083.xlsx
@@ -23,7 +23,7 @@
     <t>Dátum</t>
   </si>
   <si>
-    <t>Havi előirányaz</t>
+    <t>Havi előirányzat</t>
   </si>
   <si>
     <t>Fennmaradó hátralék</t>
@@ -105,7 +105,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.6171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.3515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="20.265625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.01953125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="9.2890625" customWidth="true" bestFit="true"/>

--- a/eredmenyek/Önkormányzat VI. ker A, 083.xlsx
+++ b/eredmenyek/Önkormányzat VI. ker A, 083.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">Önkormányzat VI. ker </t>
   </si>
@@ -35,6 +35,15 @@
     <t>Összesen</t>
   </si>
   <si>
+    <t>Befizetések</t>
+  </si>
+  <si>
+    <t>Befizető</t>
+  </si>
+  <si>
+    <t>Összeg</t>
+  </si>
+  <si>
     <t>Összes fennmaradó hátralék</t>
   </si>
   <si>
@@ -42,6 +51,9 @@
   </si>
   <si>
     <t>Összes tartozás</t>
+  </si>
+  <si>
+    <t>Megmaradt befizetés</t>
   </si>
   <si>
     <t>Összes tartozás, nyitóegyenleggel</t>
@@ -105,10 +117,13 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.3515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="4.39453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.36328125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.01953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="9.2890625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.39453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="7.09375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="8.36328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="7.2109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -123,25 +138,19 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="H3" t="s">
+        <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
+      <c r="I3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n" s="2">
         <v>0.0</v>
@@ -149,7 +158,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n" s="2">
         <v>0.0</v>
@@ -157,15 +166,23 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n" s="2">
         <v>0.0</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
       </c>
-      <c r="E8" t="n" s="2">
+      <c r="B9" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="n" s="2">
         <v>0.0</v>
       </c>
     </row>
